--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.77389999999999</v>
+        <v>-12.0528</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.3571</v>
+        <v>-12.3008</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.6854</v>
+        <v>-21.5203</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5517</v>
+        <v>-21.561</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.19739999999999</v>
+        <v>-13.13939999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.8045</v>
+        <v>-21.9418</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.1419</v>
+        <v>-12.34780000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.6294</v>
+        <v>-21.642</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.78619999999999</v>
+        <v>-21.8323</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.62819999999999</v>
+        <v>-21.56160000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.6986</v>
+        <v>-12.4642</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.37049999999999</v>
+        <v>-21.32619999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.55850000000001</v>
+        <v>-13.55250000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.82330000000001</v>
+        <v>-21.05420000000001</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.1855</v>
+        <v>-14.1649</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.34929999999999</v>
+        <v>-19.57389999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.21650000000001</v>
+        <v>-13.39170000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.4177</v>
+        <v>-13.3474</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.02299999999999</v>
+        <v>-14.2281</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.47429999999999</v>
+        <v>-21.44699999999998</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0126</v>
+        <v>-11.1538</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.56589999999999</v>
+        <v>-21.6162</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2154</v>
+        <v>-22.21330000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.14320000000001</v>
+        <v>-22.15030000000002</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.4821</v>
+        <v>-14.5075</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.53259999999997</v>
+        <v>-21.57249999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.71449999999999</v>
+        <v>-21.69529999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.5702</v>
+        <v>-21.59409999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.0524</v>
+        <v>-19.97669999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.31729999999999</v>
+        <v>-12.58060000000001</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.69879999999999</v>
+        <v>-21.848</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.73009999999999</v>
+        <v>-12.61019999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.36610000000002</v>
+        <v>-22.30980000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.40040000000001</v>
+        <v>-21.42180000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36979999999999</v>
+        <v>-21.4482</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.43279999999999</v>
+        <v>-20.35939999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.8107</v>
+        <v>-12.8923</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.5203</v>
+        <v>-13.3719</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
